--- a/Resources/fonts/juqing.xlsx
+++ b/Resources/fonts/juqing.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" r:id="rId1"/>
-    <sheet name="chapter" sheetId="3" r:id="rId2"/>
-    <sheet name="npc" sheetId="2" r:id="rId3"/>
-    <sheet name="mission" sheetId="5" r:id="rId4"/>
+    <sheet name="section" sheetId="3" r:id="rId2"/>
+    <sheet name="mission" sheetId="5" r:id="rId3"/>
+    <sheet name="npc" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="185">
   <si>
     <t>ID</t>
   </si>
@@ -456,10 +456,6 @@
   </si>
   <si>
     <t>RE</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -1036,31 +1032,6 @@
     <t>前往商业中心，再遇白洁同学</t>
   </si>
   <si>
-    <r>
-      <t>将灵巧值提升到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点</t>
-    </r>
-  </si>
-  <si>
     <t>前往学校，见识白洁的女神风采</t>
   </si>
   <si>
@@ -1140,12 +1111,50 @@
     <t>目标</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>高跟鞋、黑色丝袜、红色吊带裙、黑色蕾丝外套……一头飘逸长发，身高1.70米左右，画着眼影，穿着时尚的“黑玫瑰”</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>MI</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将灵巧值提升到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,6 +1356,13 @@
       <color rgb="FF666666"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1782,7 +1798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1805,6 +1821,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -2156,7 +2173,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I5831"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -54963,7 +54980,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -55033,6 +55050,603 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="G5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="G9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="G11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="G15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="G17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="G19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="2">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G21">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="2">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="G23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="2">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I16"/>
@@ -55306,531 +55920,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -55875,9 +55970,15 @@
         <v>83</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
